--- a/73c3293c (Electrofishing SFA 18A,B)/Electrofishing_site_data_dictionary.xlsx
+++ b/73c3293c (Electrofishing SFA 18A,B)/Electrofishing_site_data_dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\DiaFish\Personal\DaigleA\Open Access\2023\EFISH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobichaudAm\GitHub\fgp-datasets\73c3293c (Electrofishing SFA 18A,B)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ACAB07-8DBF-461A-8FD5-44871D8A5AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74268072-EF90-40AC-B904-1C3174EC19AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{BC0C1445-404D-4485-8F83-BD6995DCBCD8}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{BC0C1445-404D-4485-8F83-BD6995DCBCD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="204">
   <si>
     <t>description_en</t>
   </si>
@@ -50,33 +44,18 @@
     <t>description_fr</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>Format YYYY-MM-DD.</t>
   </si>
   <si>
     <t>Format AAAA-MM-JJ</t>
   </si>
   <si>
-    <t>river_name</t>
-  </si>
-  <si>
-    <t>nom_de_la_rivière</t>
-  </si>
-  <si>
     <t>Name of the river that the site is located on. Or, if the site is on a tributary,  name of the river that the tributary connects to.</t>
   </si>
   <si>
     <t>Nom de la rivière sur laquelle le site est situé. Ou, si le site est situé sur un affluent, nom de la rivière dans laquelle l'affluent se déverse.</t>
   </si>
   <si>
-    <t>site_code</t>
-  </si>
-  <si>
-    <t>numéro du site</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code used to identify a site. Can be numeric or alphanumeric. </t>
   </si>
   <si>
@@ -92,117 +71,6 @@
     <t>site_type</t>
   </si>
   <si>
-    <t>water_cond</t>
-  </si>
-  <si>
-    <t>water_temp_c</t>
-  </si>
-  <si>
-    <t>seine_type_display</t>
-  </si>
-  <si>
-    <t>electrofisher</t>
-  </si>
-  <si>
-    <t>electrofisher_pulse_type_display</t>
-  </si>
-  <si>
-    <t>electrofisher_frequency</t>
-  </si>
-  <si>
-    <t>duty_cycle</t>
-  </si>
-  <si>
-    <t>electrofisher_voltage</t>
-  </si>
-  <si>
-    <t>electrofisher_output_low</t>
-  </si>
-  <si>
-    <t>electrofisher_output_high</t>
-  </si>
-  <si>
-    <t>bank_length_left</t>
-  </si>
-  <si>
-    <t>bank_length_right</t>
-  </si>
-  <si>
-    <t>width_lower</t>
-  </si>
-  <si>
-    <t>width_middle</t>
-  </si>
-  <si>
-    <t>width_upper</t>
-  </si>
-  <si>
-    <t>max_overhanging_veg_left</t>
-  </si>
-  <si>
-    <t>max_overhanging_veg_right</t>
-  </si>
-  <si>
-    <t>overhanging_veg_left</t>
-  </si>
-  <si>
-    <t>overhanging_veg_right</t>
-  </si>
-  <si>
-    <t>depth_1_lower</t>
-  </si>
-  <si>
-    <t>depth_1_middle</t>
-  </si>
-  <si>
-    <t>depth_1_upper</t>
-  </si>
-  <si>
-    <t>depth_2_lower</t>
-  </si>
-  <si>
-    <t>depth_2_middle</t>
-  </si>
-  <si>
-    <t>depth_2_upper</t>
-  </si>
-  <si>
-    <t>depth_3_lower</t>
-  </si>
-  <si>
-    <t>depth_3_middle</t>
-  </si>
-  <si>
-    <t>depth_3_upper</t>
-  </si>
-  <si>
-    <t>max_depth</t>
-  </si>
-  <si>
-    <t>percent_bedrock</t>
-  </si>
-  <si>
-    <t>percent_boulder</t>
-  </si>
-  <si>
-    <t>percent_cobble</t>
-  </si>
-  <si>
-    <t>percent_fine</t>
-  </si>
-  <si>
-    <t>percent_gravel</t>
-  </si>
-  <si>
-    <t>percent_pebble</t>
-  </si>
-  <si>
-    <t>percent_rocks</t>
-  </si>
-  <si>
-    <t>percent_sand</t>
-  </si>
-  <si>
     <t>percent_riffle</t>
   </si>
   <si>
@@ -215,15 +83,6 @@
     <t>percent_pool</t>
   </si>
   <si>
-    <t>age_thresh_0_1</t>
-  </si>
-  <si>
-    <t>age_thresh_1_2</t>
-  </si>
-  <si>
-    <t>age_thresh_2_3</t>
-  </si>
-  <si>
     <t>Percentage of visible area in the site covered by fine silt or clay</t>
   </si>
   <si>
@@ -315,9 +174,6 @@
   </si>
   <si>
     <t>Maximum depth (cm) located at the site</t>
-  </si>
-  <si>
-    <t>Most recent documented site coordinate</t>
   </si>
   <si>
     <t>For assessment data, options are:
@@ -386,6 +242,550 @@
   </si>
   <si>
     <t>Length (mm) selected to separate salmon 2+ parr from 3+ parr</t>
+  </si>
+  <si>
+    <t>name_nom</t>
+  </si>
+  <si>
+    <t>river_name__nom_de_la_rivière</t>
+  </si>
+  <si>
+    <t>site_code__numéro_du_site</t>
+  </si>
+  <si>
+    <t>datafile__fichier de données</t>
+  </si>
+  <si>
+    <t>specimen data__données sur les échantillons</t>
+  </si>
+  <si>
+    <t>site data__données des sites</t>
+  </si>
+  <si>
+    <t>The species being sampled.</t>
+  </si>
+  <si>
+    <t>L'espèce faisant l'objet de l'échantillonnage.</t>
+  </si>
+  <si>
+    <t>Mortality: Dead fish
+Mortality, Recapture: Dead fish; previously sampled (indicated by presence of tag, fin clip, etc.).
+Mortality, sampled: Dead fish; biological details collected.
+Mortality, research removal: Fish captured alive; kept for research purposes.
+Released, unsampled: Fish captured, released; no biological details recorded.
+Released, injury: Fish captured, released; no biological details recorded due to existing injury.
+Released, lost: Fish captured; escaped before biological details recorded.
+Released, recaptured: Fish recaptured, released; presence of tag/marking .
+Released, recaptured, lost: Fish recaptured; presence of tag/marking; escaped.
+Released, sampled: Fish captured, released; biological details recorded.
+Released, tagged: Fish captured, released; biological details recorded, fish tagged.
+Scarred, tag lost, released: Fish recaptured, released; presence of tag/marking.
+Unknown.</t>
+  </si>
+  <si>
+    <t>Mortalité: Poisson mort
+Mortalité, recapture: Poisson mort ; échantillonné précédemment (indiqué par la présence d'une étiquette, d'une entaille sur la nageoire, etc.)
+Mortalité, échantillonné: Poisson mort ; détails biologiques collectés
+Mortalité, prélèvement à des fins de recherche: Poisson capturé vivant ; conservé à des fins de recherche
+Remis à l'eau, non échantillonné: Poisson capturé, remis à l'eau ; aucun détail biologique enregistré
+Remis à l'eau, blessé: Poisson capturé, remis à l'eau ; aucun détail biologique enregistré en raison d'une blessure existante
+Remis à l'eau, perdu: Poisson capturé ; s'est échappé avant que les données biologiques ne soient enregistrées
+Relâché, recapturé: Poisson recapturé, relâché ; présence d'une étiquette/marquage 
+Remis à l'eau, recapturé, perdu: Poisson recapturé ; présence d'une étiquette/marquage ; échappé
+Remis à l'eau, échantillonné: Poisson capturé, remis à l'eau ; détails biologiques enregistrés
+Remis à l'eau, marqué: Poisson capturé, remis à l'eau ; détails biologiques enregistrés, poisson marqué
+Cicatrice, étiquette perdue, remis à l'eau : Poisson recapturé, relâché ; présence d'une étiquette/marquage
+Inconnu</t>
+  </si>
+  <si>
+    <t>Adipose condition is only identified for Atlantic salmon parr. Adipose condition is indicated as either Present or Absent. This is used as an indicator to identify a parr as wild (Present) or hatchery (Absent).</t>
+  </si>
+  <si>
+    <t>L'état de la nageoire adipeuse n'est identifié que pour les tacons de saumon atlantique. L'état de la nageoire adipeuse est indiqué comme présent ou absent. Il est utilisé comme indicateur pour identifier un tacon comme sauvage (présent) ou d'écloserie (absent).</t>
+  </si>
+  <si>
+    <t>Measured in millimeters (mm)</t>
+  </si>
+  <si>
+    <t>Mesuré en millimètres (mm)</t>
+  </si>
+  <si>
+    <t>Measured in grams (g)</t>
+  </si>
+  <si>
+    <t>Mesuré en grammes (g)</t>
+  </si>
+  <si>
+    <t>Reproductive status is only identified for Atlantic salmon parr. Reproductive status is indicated as either Precocious or Not Precocious. Precocious parr are considered sexually mature.</t>
+  </si>
+  <si>
+    <t>Le stade de la reproduction n'est identifié que pour les tacons de saumon atlantique. Le statut reproductif est indiqué comme précoce ou non précoce. Les tacons précoces sont considérés comme sexuellement matures.</t>
+  </si>
+  <si>
+    <t>Information pertaining to the gender of a specimen. Options include:
+Male.
+Female.
+Unknown: indicates determining sex was attempted, but could not be determined.
+Not checked: indicates that determining sex was not attempted. 
+Blank: often means not checked, especially when listed with species other than Atlantic salmon.</t>
+  </si>
+  <si>
+    <t>Scale ID number, when combined with date, provides a unique identifier for scales collected from a specific individual. Scales are later aged.</t>
+  </si>
+  <si>
+    <t>Le numéro d'identification des écailles, associé à la date, fournit un indice unique pour les écailles prélevées sur un individu spécifique. Les écailles sont ensuite agées.</t>
+  </si>
+  <si>
+    <t>Unique ID used to differentiate people who age scales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River age, in years. </t>
+  </si>
+  <si>
+    <t>If a smart_river_age has been assigned, the smart_river_age_type indicates how that age was determined. Options are:
+Scale: interpretation of a fish scale collected from the individual has informed age.
+Length-frequency, auto: the individual has been automatically assigned an age based on age-at-length thresholds applied to the dataset.
+Length-frequency, manual: the individual has been manually assigned an age based on criteria other than the age-at-length threshold.</t>
+  </si>
+  <si>
+    <t>Often contains comments and observations made by the individual who aged the scale . These notes can be important for understanding why a specimen was assigned the age it received.</t>
+  </si>
+  <si>
+    <t>Sweep number is used to identify what samples came from what sweep. Catch per unit effort (CPUE) sweeps are always indicated as 0.5. If a sweep has a whole number above 0.5, it is considered a depletion sweep. Depletion sweeps only appear at sites that were done as closed. For more information about CPUE sweeps and closed sites, please refer to the electrofishing protocol.</t>
+  </si>
+  <si>
+    <t>Le numéro de balayage est utilisé pour identifier quels échantillons proviennent de quel balayage. Les balayages de capture par unité d'effort (BCUE) sont toujours indiqués comme 0,5. Si un balayage a un nombre entier supérieur à 0,5, il est considéré comme un balayage d'épuisement. Les balayages d'épuisement n'apparaissent que sur les sites qui ont été fermés. Pour plus d'informations sur les balayages BCUE et les sites fermés, veuillez vous référer au protocole de pêche électrique.</t>
+  </si>
+  <si>
+    <t>Sweep time indicates how many seconds were used to complete the sweep.</t>
+  </si>
+  <si>
+    <t>La durée du balayage indique le nombre de secondes utilisées pour effectuer le balayage.</t>
+  </si>
+  <si>
+    <t>Full wetted area indicates the total wetted area that was covered during the sweep.</t>
+  </si>
+  <si>
+    <t>La surface mouillée totale indique la surface mouillée totale qui a été couverte pendant le balayage.</t>
+  </si>
+  <si>
+    <t>date__date</t>
+  </si>
+  <si>
+    <t>species__espèces</t>
+  </si>
+  <si>
+    <t>status__statut</t>
+  </si>
+  <si>
+    <t>life_stage__stade_de_vie</t>
+  </si>
+  <si>
+    <t>adipose_condition__état_de_nageoire_adipeuse</t>
+  </si>
+  <si>
+    <t>fork_length__longueur à la fourche</t>
+  </si>
+  <si>
+    <t>weight__poids</t>
+  </si>
+  <si>
+    <t>reproductive_status__stade_de_la_reproduction</t>
+  </si>
+  <si>
+    <t>scale_id_number__numéro_id_écaille</t>
+  </si>
+  <si>
+    <t>sex__sexe</t>
+  </si>
+  <si>
+    <t>sweep_number__numéro_de_balayage</t>
+  </si>
+  <si>
+    <t>sweep_time__temps_de_balayage</t>
+  </si>
+  <si>
+    <t>full_wetted_area__surface_mouillée_totale</t>
+  </si>
+  <si>
+    <t>site data__données des sites; specimen data__données sur les échantillons</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Life stage is identified for Atlantic salmon. Salmon juveniles are identified </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IN THE FIELD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> as either Fry or Parr, based on fork length. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note, smart_river_age is assigned after the data are collected and scales have been aged. It is possible for smart_river_age and life_stage to conflict. When they do, smart_river_age is deemed more reliable as it takes into account more information than just length.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Le stade de vie est identifié pour le saumon atlantique. Les juvéniles de saumon sont identifiés</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SUR LE TERRAIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> comme alevins ou tacons, sur la base de la longueur de la fourche. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remarque : l'âge smart_river_ est attribué après que les données ont été collectées et que les écailles ont été vieillies. Il est possible que smart_river_age et life_stage soient en conflit. Dans ce cas, smart_river_age est considéré comme plus fiable car il prend en compte plus d'informations que la seule longueur.</t>
+    </r>
+  </si>
+  <si>
+    <t>L'âge de la rivière, en années.</t>
+  </si>
+  <si>
+    <t>Most recent documented site coordinate in decimal degrees</t>
+  </si>
+  <si>
+    <t>Coordonnées documentées les plus récentes du site en degrés décimaux</t>
+  </si>
+  <si>
+    <t>Pour les données d'évaluation, les options sont les suivantes :
+Ouvert ; site de capture par unité d'effort (CPUE) à passage unique
+Fermé ; site d'épuisement à passages multiples</t>
+  </si>
+  <si>
+    <t>Conductivité spécifique de l'eau (µs)</t>
+  </si>
+  <si>
+    <t>Température de l'eau (°C)</t>
+  </si>
+  <si>
+    <t>Les options de type de senne sont les suivantes :
+Senne à 1 homme (1m de large x 1m de haut)
+Senne à 2 hommes (3m de large x 1m de haut)</t>
+  </si>
+  <si>
+    <t>Marque, type et numéro de série du matériel de pêche électrique utilisé</t>
+  </si>
+  <si>
+    <t>Type d'impulsion électrique appliquée lors de l'échantillonnage</t>
+  </si>
+  <si>
+    <t>Fréquence (Hz) de l'impulsion électrique appliquée lors de l'échantillonnage</t>
+  </si>
+  <si>
+    <t>Coefficient d'utilisation (%) de l'impulsion électrique appliquée lors de l'échantillonnage</t>
+  </si>
+  <si>
+    <t>Tension (V) appliquée lors de l'échantillonnage</t>
+  </si>
+  <si>
+    <t>Courant le plus faible (A) enregistré lors de l'échantillonnage ; le courant est inversement proportionnel à la distance entre l'anode et la cathode.</t>
+  </si>
+  <si>
+    <t>Courant le plus élevé (A) enregistré lors de l'échantillonnage ; le courant est inversement proportionnel à la distance entre l'anode et la cathode.</t>
+  </si>
+  <si>
+    <t>Longueur de la rive gauche (m) ; déterminée en regardant vers l'aval</t>
+  </si>
+  <si>
+    <t>Longueur de la rive droite (m) ; déterminée en regardant vers l'aval</t>
+  </si>
+  <si>
+    <t>largeur inférieure mouillée du site (m) ; déterminée en regardant vers l'aval</t>
+  </si>
+  <si>
+    <t>largeur moyenne mouillée du site (m) ; déterminée en regardant vers l'aval</t>
+  </si>
+  <si>
+    <t>largeur supérieure mouillée du site (m) ; déterminée en regardant vers l'aval</t>
+  </si>
+  <si>
+    <t>Surplomb maximal (m) sur la rive gauche ; déterminé en regardant vers l'aval</t>
+  </si>
+  <si>
+    <t>Surplomb maximal (m) sur la rive droite ; déterminé en regardant vers l'aval</t>
+  </si>
+  <si>
+    <t>Pourcentage de la rive gauche avec de la végétation en surplomb ; déterminé en regardant vers l'aval</t>
+  </si>
+  <si>
+    <t>Pourcentage de la rive droite avec de la végétation en surplomb ; déterminé en regardant vers l'aval</t>
+  </si>
+  <si>
+    <t>Les profondeurs sont mesurées là où les largeurs de site sont prises ; profondeur (cm) à 25% de la rive gauche à la largeur inférieure.</t>
+  </si>
+  <si>
+    <t>Les profondeurs sont mesurées là où les largeurs de site sont prises ; profondeur (cm) à 50 % de la rive gauche à la largeur la plus faible</t>
+  </si>
+  <si>
+    <t>Les profondeurs sont mesurées là où les largeurs de site sont prises ; profondeur (cm) à 75% de la rive gauche à la largeur inférieure.</t>
+  </si>
+  <si>
+    <t>Les profondeurs sont mesurées là où les largeurs de site sont prises ; profondeur (cm) à 25% de la rive gauche à la largeur moyenne</t>
+  </si>
+  <si>
+    <t>Les profondeurs sont mesurées là où les largeurs de site sont prises ; profondeur (cm) à 50 % de la rive gauche à la largeur moyenne</t>
+  </si>
+  <si>
+    <t>Les profondeurs sont mesurées là où les largeurs de site sont prises ; profondeur (cm) à 75% de la rive gauche à la largeur moyenne</t>
+  </si>
+  <si>
+    <t>Les profondeurs sont mesurées là où les largeurs de site sont prises ; profondeur (cm) à 25% de la rive gauche à la largeur supérieure.</t>
+  </si>
+  <si>
+    <t>Les profondeurs sont mesurées là où les largeurs de site sont prises ; profondeur (cm) à 50% de la rive gauche à la largeur supérieure.</t>
+  </si>
+  <si>
+    <t>Les profondeurs sont mesurées là où les largeurs de site sont prises ; profondeur (cm) à 75% de la rive gauche à la largeur supérieure.</t>
+  </si>
+  <si>
+    <t>Profondeur maximale (cm) localisée sur le site</t>
+  </si>
+  <si>
+    <t>Pourcentage de la surface visible du site recouverte de limon fin ou d'argile</t>
+  </si>
+  <si>
+    <t>Pourcentage de la surface visible du site recouverte de sable (&lt;2mm)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la surface visible du site couverte par des graviers (2 mm à 16 mm)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la surface visible du site couverte par des cailloux (16 mm à 60 mm)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la surface visible du site couverte par des galets (60 mm à 250 mm)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la surface visible du site couverte par des rochers (250 mm à 500 mm)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la surface visible du site couverte par des blocs rocheux (&gt;500mm)</t>
+  </si>
+  <si>
+    <t>Pourcentage de la surface visible du site couverte par la roche mère</t>
+  </si>
+  <si>
+    <t>Pourcentage du site qui est un radier ; courant rapide, faible profondeur (&lt;23cm), écoulement turbulent (généralement) brisé.</t>
+  </si>
+  <si>
+    <t>Pourcentage du site qui est parcouru ; courant rapide, profondeur &gt;23cm, turbulent et parfois brisé.</t>
+  </si>
+  <si>
+    <t>Pourcentage du site qui est plat ; courant lent, profondeur &lt;46cm, surface lisse</t>
+  </si>
+  <si>
+    <t>Pourcentage du site qui est une piscine ; courant lent, profondeur &gt;46cm, surface lisse</t>
+  </si>
+  <si>
+    <t>Longueur (mm) choisie pour séparer les alevins de saumon (âge 0+) des tacons 1+.</t>
+  </si>
+  <si>
+    <t>Longueur (mm) choisie pour séparer les tacons de saumon 1+ des tacons 2+.</t>
+  </si>
+  <si>
+    <t>Longueur (mm) choisie pour séparer les tacons de saumon 2+ des tacons 3+.</t>
+  </si>
+  <si>
+    <t>Informations relatives au sexe d'un spécimen. Les options sont les suivantes :
+Mâle.
+Femelle.
+Inconnu : indique que l'on a tenté de déterminer le sexe, mais que cela n'a pas été possible.
+Non coché : indique que la détermination du sexe n'a pas été tentée. 
+Blanc : signifie souvent que la case n'a pas été cochée, en particulier lorsqu'il s'agit d'espèces autres que le saumon atlantique.</t>
+  </si>
+  <si>
+    <t>Identifiant unique utilisé pour différencier les personnes qui vieillissent les écailles.</t>
+  </si>
+  <si>
+    <t>Si un smart_river_age a été attribué, le smart_river_age_type indique comment cet âge a été déterminé. Les options sont les suivantes :
+Écaille : l'interprétation d'une écaille de poisson prélevée sur l'individu a permis de déterminer l'âge.
+Fréquence de longueur, auto : un âge a été automatiquement attribué à l'individu sur la base des seuils d'âge à la longueur appliqués au jeu de données.
+Fréquence de longueur, manuel : l'âge de l'individu a été attribué manuellement sur la base de critères autres que le seuil d'âge en fonction de la longueur.</t>
+  </si>
+  <si>
+    <t>Il contient souvent des commentaires et des observations faits par la personne qui a procédé à l'évaluation des écailles.. Ces notes peuvent être importantes pour comprendre pourquoi un spécimen s'est vu attribuer l'âge qu'il a reçu.</t>
+  </si>
+  <si>
+    <t>notes__notes</t>
+  </si>
+  <si>
+    <t>smart_river_age__âge_de_la_rivière</t>
+  </si>
+  <si>
+    <t>total_length__longueur_totale</t>
+  </si>
+  <si>
+    <t>ager_id__id_de_l'analyste</t>
+  </si>
+  <si>
+    <t>smart_river_age_type__type_de_rivière</t>
+  </si>
+  <si>
+    <t>age_thresh_2_3__seuil d'âge_2_3</t>
+  </si>
+  <si>
+    <t>age_thresh_1_2__seuil d'âge_1_2</t>
+  </si>
+  <si>
+    <t>age_thresh_0_1__seuil d'âge_0_1</t>
+  </si>
+  <si>
+    <t>water_cond__eau_cond</t>
+  </si>
+  <si>
+    <t>water_temp_c__eau_temp_c</t>
+  </si>
+  <si>
+    <t>seine_type__type_de_senne</t>
+  </si>
+  <si>
+    <t>electrofisher__électropêcheur</t>
+  </si>
+  <si>
+    <t>electrofisher_pulse_type__type_d'impulsion_du_électropêcheur</t>
+  </si>
+  <si>
+    <t>electrofisher_frequency__fréquence_du_électropêcheur</t>
+  </si>
+  <si>
+    <t>duty_cycle__facteur d'utilisation</t>
+  </si>
+  <si>
+    <t>electrofisher_voltage__tension_électropêcheur</t>
+  </si>
+  <si>
+    <t>electrofisher_output_low__sortie_faible_du_électropêcheur</t>
+  </si>
+  <si>
+    <t>electrofisher_output_high__sortie_élevé_du_électropêcheur</t>
+  </si>
+  <si>
+    <t>bank_length_left__longueur_de_la_banque_à_gauche</t>
+  </si>
+  <si>
+    <t>bank_length_right__longueur_de_la_banque_à_droite</t>
+  </si>
+  <si>
+    <t>width_lower__largeur_inférieure</t>
+  </si>
+  <si>
+    <t>width_middle__largeur_moyenne</t>
+  </si>
+  <si>
+    <t>width_upper__largeur_supérieure</t>
+  </si>
+  <si>
+    <t>max_overhanging_veg_left__max_vég_en_surplomb_à_gauche</t>
+  </si>
+  <si>
+    <t>max_overhanging_veg_right__max_vég_en_surplomb_à_droite</t>
+  </si>
+  <si>
+    <t>overhanging_veg_left__vég_en_surplomb_à_gauche</t>
+  </si>
+  <si>
+    <t>overhanging_veg_right__vég_en_surplomb_à_droite</t>
+  </si>
+  <si>
+    <t>depth_1_lower__profondeur_1_inférieure</t>
+  </si>
+  <si>
+    <t>depth_2_lower__profondeur_2_inférieure</t>
+  </si>
+  <si>
+    <t>depth_3_lower__profondeur_3_inférieure</t>
+  </si>
+  <si>
+    <t>depth_1_middle__profondeur_1_moyenne</t>
+  </si>
+  <si>
+    <t>depth_2_middle__profondeur_2_moyenne</t>
+  </si>
+  <si>
+    <t>depth_3_middle__profondeur_3_moyenne</t>
+  </si>
+  <si>
+    <t>depth_1_upper__profondeur_1_supérieur</t>
+  </si>
+  <si>
+    <t>depth_2_upper__profondeur_2_supérieur</t>
+  </si>
+  <si>
+    <t>depth_3_upper__profondeur_3_supérieur</t>
+  </si>
+  <si>
+    <t>max_depth__max_profondeur</t>
+  </si>
+  <si>
+    <t>percent_fine__pourcentage_fin</t>
+  </si>
+  <si>
+    <t>percent_sand__pourcentage_sable</t>
+  </si>
+  <si>
+    <t>percent_gravel__pourcentage_gravier</t>
+  </si>
+  <si>
+    <t>percent_pebble__pourcentage_caillou</t>
+  </si>
+  <si>
+    <t>percent_cobble__pourcentage_pierre</t>
+  </si>
+  <si>
+    <t>percent_rocks__pourcentage_roches</t>
+  </si>
+  <si>
+    <t>percent_boulder__pourcentage_rocher</t>
+  </si>
+  <si>
+    <t>percent_bedrock__pourcentage_roche-mère</t>
   </si>
 </sst>
 </file>
@@ -450,22 +850,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -781,459 +1190,975 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6A237-AD95-46FD-B01A-BB493358523F}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="52.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="83.7109375" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>62</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="3"/>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>167</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>95</v>
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>168</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>48</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>97</v>
+      <c r="A10" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
+      <c r="A11" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>98</v>
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
+      <c r="A12" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>100</v>
+        <v>52</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>23</v>
+      <c r="A13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>24</v>
+        <v>173</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>25</v>
+        <v>174</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B68" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>